--- a/medicine/Enfance/Isabelle_Le_Boulanger/Isabelle_Le_Boulanger.xlsx
+++ b/medicine/Enfance/Isabelle_Le_Boulanger/Isabelle_Le_Boulanger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Isabelle Le Boulanger, née le 31 juillet 1962, est enseignante et chercheuse associée au Centre de recherche bretonne et celtique de l'université de Brest. Ses études portent sur l'histoire des mentalités bretonnes à l'époque contemporaine, en particulier l'histoire des femmes et des enfants. 
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Isabelle Le Boulanger est professeure d'histoire contemporaine et chercheuse associée au Centre de recherche bretonne et celtique de l'université de Brest[1].
-Elle soutient sa thèse dirigée par  Christian Bougeard à l'université de Brest en 2010. Elle porte titre  L'abandon d’enfants au XIXe siècle : pratiques, modalités, enjeux : l’exemple des Côtes-du-Nord (1811-1904)[2].  Pour cette étude, Isabelle Le Boulanger a étudié 3000 documents d'archives : procès-verbaux d’exposition et d’admission des hospices pour les enfants déposées dans les tours. En 1811, un décret impérial officialise le système des tours d'abandon. Il s'agit de cylindre pivotant installés dans un mur extérieur de l'hospice. L'enfant est déposé, le tour pivote mettant ainsi le nourrisson à l'intérieur du bâtiment, au chaud. Ce système permettait un abandon anonyme pour la mère et sûr pour le nourrisson. Une loi en 1904 met fin à ce système[3].
-En 2015, elle publie Enfance bafouée. La société rurale bretonne face aux abus sexuels du XIXe siècle. Pour cet ouvrage, elle étudie 349 dossiers de procédures, pour abus sexuels[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Isabelle Le Boulanger est professeure d'histoire contemporaine et chercheuse associée au Centre de recherche bretonne et celtique de l'université de Brest.
+Elle soutient sa thèse dirigée par  Christian Bougeard à l'université de Brest en 2010. Elle porte titre  L'abandon d’enfants au XIXe siècle : pratiques, modalités, enjeux : l’exemple des Côtes-du-Nord (1811-1904).  Pour cette étude, Isabelle Le Boulanger a étudié 3000 documents d'archives : procès-verbaux d’exposition et d’admission des hospices pour les enfants déposées dans les tours. En 1811, un décret impérial officialise le système des tours d'abandon. Il s'agit de cylindre pivotant installés dans un mur extérieur de l'hospice. L'enfant est déposé, le tour pivote mettant ainsi le nourrisson à l'intérieur du bâtiment, au chaud. Ce système permettait un abandon anonyme pour la mère et sûr pour le nourrisson. Une loi en 1904 met fin à ce système.
+En 2015, elle publie Enfance bafouée. La société rurale bretonne face aux abus sexuels du XIXe siècle. Pour cet ouvrage, elle étudie 349 dossiers de procédures, pour abus sexuels.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Isabelle Le Boulanger, L’abandon d’enfants. L’exemple des Côtes-du-Nord au XIXe siècle, préface Frédéric Chauveau, Rennes, PUR, 2011, 368 p. (ISBN 978-2-7535-1312-9)
 Isabelle Le Boulanger, Les échanges d'enfants assistés dans les années 1830 : objets, enjeux, bilan, Revue d'Histoire de l'Enfance Irrégulière, 2012.
@@ -586,7 +602,9 @@
           <t>Contributions à des dictionnaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Dictionnaire des féministes France XVIIIe – XXIe siècle, Christine Bard (dir.), Paris, PUF, 2017
 Dictionnaire des lycées catholiques bretons, Y. Tranvouez (dir), Rennes, PUR, 2018</t>
@@ -617,7 +635,9 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Médaille d'or de la Société Française des Hôpitaux de Paris, 2014</t>
         </is>
